--- a/Materials_and_Devices/Adaptive Gaming Centre Equipment List.xlsx
+++ b/Materials_and_Devices/Adaptive Gaming Centre Equipment List.xlsx
@@ -6754,8 +6754,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100456CAEA290209545A9F8681F83603874" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49f115c7a3c264b4caa7c4a2a9dfe641">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8cf100d1-0775-4feb-8634-62999c4541bc" xmlns:ns3="38b325e6-602c-452a-8617-173bf47082c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a7fbddefd9ea5d4063088c640fc30473" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100456CAEA290209545A9F8681F83603874" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e35f94ae33f6d332f6080062d75f0ffe">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8cf100d1-0775-4feb-8634-62999c4541bc" xmlns:ns3="38b325e6-602c-452a-8617-173bf47082c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e79f0fd5754c50ae17b688c6992d0ee" ns2:_="" ns3:_="">
     <xsd:import namespace="8cf100d1-0775-4feb-8634-62999c4541bc"/>
     <xsd:import namespace="38b325e6-602c-452a-8617-173bf47082c5"/>
     <xsd:element name="properties">
@@ -6779,6 +6779,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6853,6 +6854,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -7016,20 +7022,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF9B6332-1CAE-4999-9A9A-E5F2E4960645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
-    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FA51F58-359E-44A6-A1DC-EB881EBE25CE}"/>
 </file>